--- a/static/schedule/Pасписание/27 февраля 2024 вторник.xlsx
+++ b/static/schedule/Pасписание/27 февраля 2024 вторник.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="109">
   <si>
     <t>Согласовано:</t>
   </si>
@@ -217,15 +217,6 @@
 Васюкова К.В.</t>
   </si>
   <si>
-    <t>Технология разработики
-и защиты баз данных
-Яхругина Е.О</t>
-  </si>
-  <si>
-    <t>Основы проектирования баз данных
-Яхругина Е.О.</t>
-  </si>
-  <si>
     <t>Численные методы
 Курбанов И.Б.</t>
   </si>
@@ -403,6 +394,11 @@
   <si>
     <t>Иностранный язык 
 Коротина М.А.</t>
+  </si>
+  <si>
+    <t>Технология разработки
+и защиты баз данных
+Яхругина Е.О</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1651,7 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,7 +1689,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="66" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" s="66"/>
       <c r="D1" s="66"/>
@@ -1763,7 +1759,7 @@
         <v>50</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G3" s="45"/>
       <c r="H3" s="33" t="s">
@@ -1777,7 +1773,7 @@
         <v>51</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O3" s="48"/>
       <c r="P3" s="33"/>
@@ -1797,7 +1793,7 @@
         <v>56</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="33"/>
@@ -1809,19 +1805,19 @@
         <v>58</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O4" s="48" t="s">
         <v>50</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1834,42 +1830,42 @@
       <c r="C5" s="21"/>
       <c r="D5" s="33"/>
       <c r="E5" s="50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G5" s="45"/>
       <c r="H5" s="33"/>
       <c r="I5" s="65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K5" s="45" t="s">
         <v>57</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M5" s="50" t="s">
         <v>56</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O5" s="50" t="s">
         <v>58</v>
       </c>
       <c r="P5" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="27" t="s">
         <v>87</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1887,37 +1883,37 @@
         <v>38</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K6" s="50" t="s">
         <v>58</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M6" s="48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O6" s="48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R6" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1928,42 +1924,42 @@
         <v>43</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="33" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K7" s="48" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M7" s="48"/>
       <c r="N7" s="33"/>
       <c r="O7" s="39"/>
       <c r="P7" s="33"/>
       <c r="Q7" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1977,7 +1973,7 @@
         <v>51</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>37</v>
@@ -1986,22 +1982,22 @@
         <v>37</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" s="63" t="s">
-        <v>60</v>
+        <v>85</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>108</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M8" s="50" t="s">
         <v>37</v>
@@ -2065,29 +2061,29 @@
         <v>52</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G10" s="48"/>
       <c r="H10" s="33"/>
       <c r="I10" s="45"/>
       <c r="J10" s="33"/>
       <c r="K10" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M10" s="48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N10" s="49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O10" s="48"/>
       <c r="P10" s="33"/>
@@ -2111,41 +2107,41 @@
         <v>52</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G11" s="48"/>
       <c r="H11" s="33"/>
       <c r="I11" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K11" s="45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L11" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="49" t="s">
         <v>95</v>
-      </c>
-      <c r="M11" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="49" t="s">
-        <v>97</v>
       </c>
       <c r="O11" s="48"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S11" s="62" t="s">
         <v>37</v>
@@ -2162,48 +2158,48 @@
         <v>41</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G12" s="48"/>
       <c r="H12" s="33"/>
       <c r="I12" s="45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M12" s="48" t="s">
         <v>47</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O12" s="45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q12" s="48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S12" s="62" t="s">
         <v>37</v>
@@ -2227,37 +2223,37 @@
         <v>47</v>
       </c>
       <c r="H13" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="33" t="s">
-        <v>100</v>
-      </c>
       <c r="M13" s="48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O13" s="45" t="s">
         <v>57</v>
       </c>
       <c r="P13" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" s="33" t="s">
         <v>95</v>
-      </c>
-      <c r="Q13" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="R13" s="33" t="s">
-        <v>97</v>
       </c>
       <c r="S13" s="62" t="s">
         <v>37</v>
@@ -2282,16 +2278,16 @@
       <c r="E14" s="45"/>
       <c r="F14" s="33"/>
       <c r="G14" s="50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K14" s="45" t="s">
         <v>37</v>
@@ -2302,10 +2298,10 @@
       <c r="M14" s="48"/>
       <c r="N14" s="33"/>
       <c r="O14" s="48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="48"/>
       <c r="R14" s="33"/>
@@ -2345,10 +2341,10 @@
       <c r="M15" s="48"/>
       <c r="N15" s="33"/>
       <c r="O15" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="48"/>
       <c r="R15" s="33"/>
@@ -2397,10 +2393,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="33"/>
@@ -2408,7 +2404,7 @@
         <v>47</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I17" s="45"/>
       <c r="J17" s="33"/>
@@ -2434,7 +2430,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="33"/>
@@ -2442,13 +2438,13 @@
         <v>57</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K18" s="45"/>
       <c r="L18" s="33"/>
@@ -2474,27 +2470,27 @@
         <v>48</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="33"/>
       <c r="G19" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>55</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M19" s="48" t="s">
         <v>37</v>
@@ -2515,34 +2511,34 @@
         <v>42</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I20" s="45" t="s">
         <v>53</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K20" s="21" t="s">
         <v>55</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M20" s="48" t="s">
         <v>37</v>
@@ -2551,16 +2547,16 @@
         <v>37</v>
       </c>
       <c r="O20" s="51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="48" t="s">
         <v>39</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2576,25 +2572,25 @@
         <v>57</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H21" s="47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I21" s="47" t="s">
         <v>54</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>55</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M21" s="48" t="s">
         <v>37</v>
@@ -2603,16 +2599,16 @@
         <v>37</v>
       </c>
       <c r="O21" s="51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="48" t="s">
         <v>39</v>
       </c>
       <c r="R21" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2628,7 +2624,7 @@
         <v>36</v>
       </c>
       <c r="F22" s="63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G22" s="46"/>
       <c r="H22" s="42"/>
@@ -2642,7 +2638,7 @@
         <v>55</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M22" s="39" t="s">
         <v>37</v>
@@ -2651,16 +2647,16 @@
         <v>37</v>
       </c>
       <c r="O22" s="51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="48" t="s">
         <v>39</v>
       </c>
       <c r="R22" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2697,16 +2693,16 @@
         <v>31</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E24" s="45" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G24" s="51"/>
       <c r="H24" s="33"/>
@@ -2730,16 +2726,16 @@
         <v>32</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G25" s="51"/>
       <c r="H25" s="33"/>
@@ -2765,13 +2761,13 @@
         <v>49</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G26" s="51"/>
       <c r="H26" s="33"/>
@@ -2797,7 +2793,7 @@
         <v>49</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E27" s="45" t="s">
         <v>37</v>
@@ -2838,10 +2834,10 @@
         <v>37</v>
       </c>
       <c r="G28" s="51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="20"/>
@@ -2877,7 +2873,7 @@
         <v>36</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="20"/>
